--- a/data/long_dif/P24_6-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_6-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 31,97</t>
+          <t>20,48; 30,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 29,41</t>
+          <t>20,42; 31,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,08; 36,99</t>
+          <t>24,7; 36,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,81</t>
+          <t>19,81; 29,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 28,32</t>
+          <t>24,46; 35,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,43; 30,3</t>
+          <t>23,63; 31,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,7; 30,09</t>
+          <t>20,56; 28,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 27,43</t>
+          <t>24,39; 31,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 31,7</t>
+          <t>23,11; 32,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19,32; 28,18</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23,43; 29,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 28,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 32,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 29,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 29,84</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>43,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>46,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,04; 55,49</t>
+          <t>46,42; 57,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 44,86</t>
+          <t>35,18; 45,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,23; 45,74</t>
+          <t>35,19; 45,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,47; 49,9</t>
+          <t>31,99; 46,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,89; 49,51</t>
+          <t>39,66; 52,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,48; 51,21</t>
+          <t>40,6; 49,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,91; 51,03</t>
+          <t>40,11; 49,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,15; 46,25</t>
+          <t>42,17; 50,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,76; 47,47</t>
+          <t>36,11; 45,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41,71; 51,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44,35; 51,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,05; 46,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40,21; 46,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 44,6</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>42,55; 50,98</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>30,63%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,12%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,5; 29,08</t>
+          <t>19,97; 28,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 42,38</t>
+          <t>28,98; 40,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 34,05</t>
+          <t>25,2; 34,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,53; 31,55</t>
+          <t>28,44; 45,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,67; 35,18</t>
+          <t>19,68; 29,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,47; 29,56</t>
+          <t>23,74; 31,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,84</t>
+          <t>27,01; 35,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,94; 36,96</t>
+          <t>23,04; 30,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,04; 30,61</t>
+          <t>26,21; 35,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 34,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 28,85</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 36,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 30,83</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>28,72; 39,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 30,83</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,35; 39,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 25,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 34,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 38,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 26,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 32,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,8; 36,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 24,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,11; 32,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>22,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,59%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,83; 51,28</t>
+          <t>28,36; 40,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,78; 49,18</t>
+          <t>15,72; 25,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,91; 43,03</t>
+          <t>24,6; 34,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,82; 49,23</t>
+          <t>26,4; 40,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,84; 55,63</t>
+          <t>20,57; 50,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,85; 47,12</t>
+          <t>26,77; 36,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,22; 48,62</t>
+          <t>17,94; 26,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,92; 50,04</t>
+          <t>24,11; 32,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,49; 43,64</t>
+          <t>18,68; 27,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 37,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28,7; 36,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,9; 24,46</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 32,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,52; 31,85</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>22,91; 42,1</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>47,33%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49,81%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>41,27%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 27,63</t>
+          <t>36,4; 48,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,44; 45,71</t>
+          <t>36,61; 49,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,77; 38,46</t>
+          <t>32,1; 42,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 27,7</t>
+          <t>28,62; 41,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,95; 33,25</t>
+          <t>26,33; 48,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,14; 33,08</t>
+          <t>40,52; 50,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,93; 26,24</t>
+          <t>44,33; 55,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,71; 37,0</t>
+          <t>38,86; 47,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,76; 34,4</t>
+          <t>41,63; 52,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40,5; 60,05</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40,27; 48,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42,29; 50,51</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>36,39; 43,35</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>36,5; 45,68</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>34,64; 50,91</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,39%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>31,14%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>26,59%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,43; 36,15</t>
+          <t>19,44; 28,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,45; 35,34</t>
+          <t>30,85; 44,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,28; 30,05</t>
+          <t>28,88; 39,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 37,05</t>
+          <t>26,59; 38,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,9; 32,81</t>
+          <t>21,21; 40,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,41; 40,58</t>
+          <t>19,22; 27,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,19; 34,29</t>
+          <t>23,15; 32,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,41; 30,59</t>
+          <t>24,88; 32,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,96; 31,79</t>
+          <t>25,18; 34,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 31,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 26,54</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28,46; 36,45</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>28,38; 35,03</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 35,38</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>20,26; 32,87</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,28; 65,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>33,15; 58,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,11; 54,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,0; 51,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,85; 54,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,86; 54,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,88; 55,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,67; 53,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,37; 51,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,1%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,82; 33,75</t>
+          <t>19,34; 40,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,41; 40,23</t>
+          <t>15,66; 35,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,83; 46,8</t>
+          <t>14,17; 30,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,23; 41,4</t>
+          <t>8,59; 29,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,91; 42,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,01; 31,69</t>
+          <t>17,71; 33,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,14; 34,15</t>
+          <t>16,56; 32,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,04; 38,14</t>
+          <t>23,23; 40,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,02; 38,33</t>
+          <t>20,46; 41,38</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>20,89; 34,14</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17,61; 30,64</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>20,5; 32,14</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 31,64</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>42,63%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>47,85%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>44,39%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>45,36%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>44,98%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>24,63; 32,39</t>
+          <t>34,58; 62,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,92</t>
+          <t>33,26; 61,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,5; 32,84</t>
+          <t>32,23; 51,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,88</t>
+          <t>26,12; 58,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,56; 30,55</t>
+          <t>33,15; 51,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,47; 31,75</t>
+          <t>34,99; 55,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,26</t>
+          <t>35,7; 54,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>26,2; 30,58</t>
+          <t>37,31; 59,15</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>36,67; 52,93</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37,95; 54,42</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>37,52; 50,82</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>34,87; 54,3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,69%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>30,35%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43,97; 52,16</t>
+          <t>15,63; 34,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37,94; 45,72</t>
+          <t>20,38; 40,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>36,37; 43,4</t>
+          <t>27,71; 48,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>41,13; 47,29</t>
+          <t>25,76; 63,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>43,86; 50,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,11; 48,02</t>
+          <t>24,26; 41,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>43,65; 48,91</t>
+          <t>21,31; 41,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>41,59; 46,87</t>
+          <t>16,86; 32,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,11; 44,69</t>
+          <t>13,79; 32,17</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>22,38; 35,17</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 38,01</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 37,61</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>23,66; 44,57</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>31,99; 40,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>26,69; 32,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,67; 29,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>30,2; 35,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>27,1; 31,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>25,29; 32,53</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 26,71</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 32,31</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 30,6</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 36,54</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 31,86</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 26,08</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>25,48; 30,94</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 29,8</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 28,52</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 31,28</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 25,49</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>26,18; 30,62</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 29,09</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 30,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>47,3%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>41,91%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>39,34%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>38,45%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>44,08%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>44,69%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>44,35%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>47,28%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45,96%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>44,47%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>42,18%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>43,51; 51,32</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>37,87; 46,09</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>35,93; 42,63</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>33,2; 42,82</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>38,53; 49,62</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>41,62; 47,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>43,59; 49,97</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>41,77; 47,82</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>40,64; 48,03</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>42,78; 52,18</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>43,64; 48,59</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>41,55; 46,71</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>40,05; 44,44</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>38,31; 44,21</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 49,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>32,3%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>34,84%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>27,04%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>29,4%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>25,23%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>32,31%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 27,19</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>31,34; 39,32</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>29,03; 35,64</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>30,35; 41,04</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 30,89</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>23,78; 29,3</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 32,84</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 29,71</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>26,02; 32,41</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>24,2; 32,35</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 27,16</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>29,96; 34,93</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>27,57; 31,7</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 35,94</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 29,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_6-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_6-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
